--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Documents\GitHub\tarea_aplicada_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVINSTEVEN\Documents\GitHub\tarea_aplicada_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Parámetro</t>
   </si>
@@ -147,6 +147,45 @@
   </si>
   <si>
     <t>Hogares</t>
+  </si>
+  <si>
+    <t>-5495.492</t>
+  </si>
+  <si>
+    <t>28198.53521</t>
+  </si>
+  <si>
+    <t>4241.22091</t>
+  </si>
+  <si>
+    <t>5.56604</t>
+  </si>
+  <si>
+    <t>17.0307</t>
+  </si>
+  <si>
+    <t>-3.01025</t>
+  </si>
+  <si>
+    <t>27.21851</t>
+  </si>
+  <si>
+    <t>1.565795</t>
+  </si>
+  <si>
+    <t>1.271698</t>
+  </si>
+  <si>
+    <t>8.203393</t>
+  </si>
+  <si>
+    <t>52.2694</t>
+  </si>
+  <si>
+    <t>5.675371</t>
+  </si>
+  <si>
+    <t>56.12648</t>
   </si>
 </sst>
 </file>
@@ -307,14 +346,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -323,9 +359,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,14 +663,14 @@
   <dimension ref="B3:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -625,203 +679,207 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="15">
-        <v>1.1309179999999999E-11</v>
-      </c>
-      <c r="D5" s="16">
-        <v>-5495492</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-1.047E-14</v>
-      </c>
-      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="16">
-        <v>2819853521</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16">
-        <v>424122091</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16">
-        <v>556604</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16">
-        <v>170307</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16">
-        <v>-301025</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="17">
-        <v>2721851</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="4">
-        <v>1565795</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1271698</v>
-      </c>
-      <c r="J14" s="4">
-        <v>8203393</v>
-      </c>
-      <c r="K14" s="4">
-        <v>522694</v>
-      </c>
-      <c r="L14" s="4">
-        <v>5675371</v>
-      </c>
-      <c r="M14" s="4">
-        <v>5612648</v>
+      <c r="H14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5:D11 H14:M14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>